--- a/core/tmp_result/smp/limaye200_entity_smp.xlsx
+++ b/core/tmp_result/smp/limaye200_entity_smp.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="limaye200_entity_smp-default" sheetId="1" r:id="rId1"/>
     <sheet name="limaye200_entity_smp-tableminer" sheetId="2" r:id="rId2"/>
+    <sheet name="limaye200_entity_smp-tm+granu" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="408">
   <si>
     <t>File</t>
   </si>
@@ -10407,7 +10408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
@@ -18707,4 +18708,8310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection sqref="A1:M201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0.89922480620154999</v>
+      </c>
+      <c r="F2">
+        <v>0.87218045112781895</v>
+      </c>
+      <c r="G2">
+        <v>0.88549618320610601</v>
+      </c>
+      <c r="H2">
+        <v>116</v>
+      </c>
+      <c r="I2">
+        <v>133</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>0.89922480620154999</v>
+      </c>
+      <c r="L2">
+        <v>0.87218045112781895</v>
+      </c>
+      <c r="M2">
+        <v>0.88549618320610601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="F3">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="G3">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="L3">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="M3">
+        <v>0.80645161290322498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="F5">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="G5">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="L5">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="M5">
+        <v>0.69090909090909003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="F6">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="G6">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="L6">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="M6">
+        <v>0.63829787234042501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="F7">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="G7">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="L7">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="M7">
+        <v>0.48648648648648601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="F8">
+        <v>0.546875</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="L8">
+        <v>0.546875</v>
+      </c>
+      <c r="M8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10">
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>119</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.97478991596638598</v>
+      </c>
+      <c r="F10">
+        <v>0.97478991596638598</v>
+      </c>
+      <c r="G10">
+        <v>0.97478991596638598</v>
+      </c>
+      <c r="H10">
+        <v>116</v>
+      </c>
+      <c r="I10">
+        <v>119</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0.97478991596638598</v>
+      </c>
+      <c r="L10">
+        <v>0.97478991596638598</v>
+      </c>
+      <c r="M10">
+        <v>0.97478991596638598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="F12">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="G12">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="H12">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="L12">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="M12">
+        <v>0.93181818181818099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G13">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+      <c r="L13">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M13">
+        <v>0.70588235294117596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M16">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="F17">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="G17">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="L17">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="M17">
+        <v>0.88888888888888795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.375</v>
+      </c>
+      <c r="F19">
+        <v>0.375</v>
+      </c>
+      <c r="G19">
+        <v>0.375</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0.375</v>
+      </c>
+      <c r="L19">
+        <v>0.375</v>
+      </c>
+      <c r="M19">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0.36170212765957399</v>
+      </c>
+      <c r="F23">
+        <v>0.36170212765957399</v>
+      </c>
+      <c r="G23">
+        <v>0.36170212765957399</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>47</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>0.36170212765957399</v>
+      </c>
+      <c r="L23">
+        <v>0.36170212765957399</v>
+      </c>
+      <c r="M23">
+        <v>0.36170212765957399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="G26">
+        <v>0.65454545454545399</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0.9</v>
+      </c>
+      <c r="L26">
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="M26">
+        <v>0.65454545454545399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="F28">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="G28">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="L28">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="M28">
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="F29">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="G29">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="H29">
+        <v>49</v>
+      </c>
+      <c r="I29">
+        <v>52</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="L29">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="M29">
+        <v>0.94230769230769196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30">
+        <v>159</v>
+      </c>
+      <c r="C30">
+        <v>166</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0.97546012269938598</v>
+      </c>
+      <c r="F30">
+        <v>0.95783132530120396</v>
+      </c>
+      <c r="G30">
+        <v>0.96656534954407303</v>
+      </c>
+      <c r="H30">
+        <v>159</v>
+      </c>
+      <c r="I30">
+        <v>166</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>0.95783132530120396</v>
+      </c>
+      <c r="L30">
+        <v>0.95783132530120396</v>
+      </c>
+      <c r="M30">
+        <v>0.95783132530120396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="F31">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="G31">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="H31">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>98</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="L31">
+        <v>0.97959183673469297</v>
+      </c>
+      <c r="M31">
+        <v>0.97959183673469297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="F32">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="G32">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="H32">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>78</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="L32">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="M32">
+        <v>0.97435897435897401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>91</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="F33">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="G33">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <v>91</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="L33">
+        <v>0.98901098901098905</v>
+      </c>
+      <c r="M33">
+        <v>0.98901098901098905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="F34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="G34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>36</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="L34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="M34">
+        <v>0.63888888888888795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="F35">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="G35">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="H35">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>46</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="L35">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="M35">
+        <v>0.89130434782608603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="F36">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="G36">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="L36">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="M36">
+        <v>0.86666666666666603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="F37">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="G37">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="H37">
+        <v>48</v>
+      </c>
+      <c r="I37">
+        <v>51</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="L37">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="M37">
+        <v>0.94117647058823495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="F38">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="G38">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="L38">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="M38">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0.8</v>
+      </c>
+      <c r="F40">
+        <v>0.8</v>
+      </c>
+      <c r="G40">
+        <v>0.8</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0.8</v>
+      </c>
+      <c r="L40">
+        <v>0.8</v>
+      </c>
+      <c r="M40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="F41">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="G41">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="H41">
+        <v>59</v>
+      </c>
+      <c r="I41">
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="L41">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="M41">
+        <v>0.93650793650793596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.875</v>
+      </c>
+      <c r="F43">
+        <v>0.875</v>
+      </c>
+      <c r="G43">
+        <v>0.875</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.875</v>
+      </c>
+      <c r="L43">
+        <v>0.875</v>
+      </c>
+      <c r="M43">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="F44">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G44">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="L44">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M44">
+        <v>0.69565217391304301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="F45">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="G45">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="L45">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="M45">
+        <v>0.88888888888888795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="F47">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="G47">
+        <v>0.86486486486486402</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="L47">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="M47">
+        <v>0.86486486486486402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="F50">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="G50">
+        <v>0.8</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>23</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="L50">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="M50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="F51">
+        <v>0.85</v>
+      </c>
+      <c r="G51">
+        <v>0.87179487179487103</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="L51">
+        <v>0.85</v>
+      </c>
+      <c r="M51">
+        <v>0.87179487179487103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F53">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="G53">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L53">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="M53">
+        <v>0.77777777777777701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.8</v>
+      </c>
+      <c r="G55">
+        <v>0.8</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0.8</v>
+      </c>
+      <c r="L55">
+        <v>0.8</v>
+      </c>
+      <c r="M55">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0.75</v>
+      </c>
+      <c r="F56">
+        <v>0.75</v>
+      </c>
+      <c r="G56">
+        <v>0.75</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>0.75</v>
+      </c>
+      <c r="L56">
+        <v>0.75</v>
+      </c>
+      <c r="M56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F57">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="G57">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>13</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L57">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="M57">
+        <v>0.52631578947368396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>0.71951219512195097</v>
+      </c>
+      <c r="F58">
+        <v>0.702380952380952</v>
+      </c>
+      <c r="G58">
+        <v>0.71084337349397597</v>
+      </c>
+      <c r="H58">
+        <v>59</v>
+      </c>
+      <c r="I58">
+        <v>84</v>
+      </c>
+      <c r="J58">
+        <v>23</v>
+      </c>
+      <c r="K58">
+        <v>0.71951219512195097</v>
+      </c>
+      <c r="L58">
+        <v>0.702380952380952</v>
+      </c>
+      <c r="M58">
+        <v>0.71084337349397597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59">
+        <v>46</v>
+      </c>
+      <c r="C59">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>55</v>
+      </c>
+      <c r="E59">
+        <v>0.45544554455445502</v>
+      </c>
+      <c r="F59">
+        <v>0.44660194174757201</v>
+      </c>
+      <c r="G59">
+        <v>0.45098039215686198</v>
+      </c>
+      <c r="H59">
+        <v>46</v>
+      </c>
+      <c r="I59">
+        <v>103</v>
+      </c>
+      <c r="J59">
+        <v>56</v>
+      </c>
+      <c r="K59">
+        <v>0.45098039215686198</v>
+      </c>
+      <c r="L59">
+        <v>0.44660194174757201</v>
+      </c>
+      <c r="M59">
+        <v>0.448780487804878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="F60">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="G60">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="L60">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="M60">
+        <v>0.78947368421052599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="F62">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G62">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="L62">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="M62">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63">
+        <v>82</v>
+      </c>
+      <c r="C63">
+        <v>98</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="F63">
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="G63">
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="H63">
+        <v>82</v>
+      </c>
+      <c r="I63">
+        <v>98</v>
+      </c>
+      <c r="J63">
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="L63">
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="M63">
+        <v>0.83673469387755095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G64">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="M64">
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+      <c r="I65">
+        <v>18</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="F66">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="G66">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="L66">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="M66">
+        <v>0.70588235294117596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>273</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F68">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="G68">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="L68">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="M68">
+        <v>0.69230769230769196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="F69">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="G69">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="H69">
+        <v>12</v>
+      </c>
+      <c r="I69">
+        <v>13</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="L69">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="M69">
+        <v>0.92307692307692302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="F70">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="G70">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="L70">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="M70">
+        <v>0.88235294117647001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="F73">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="G73">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="H73">
+        <v>11</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="L73">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="M73">
+        <v>0.91666666666666596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>52</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="F74">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="G74">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="H74">
+        <v>50</v>
+      </c>
+      <c r="I74">
+        <v>52</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="L74">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="M74">
+        <v>0.96153846153846101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0.8</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>0.8</v>
+      </c>
+      <c r="H75">
+        <v>12</v>
+      </c>
+      <c r="I75">
+        <v>15</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>0.8</v>
+      </c>
+      <c r="L75">
+        <v>0.8</v>
+      </c>
+      <c r="M75">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F76">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="G76">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L76">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="M76">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F77">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="G77">
+        <v>0.59459459459459396</v>
+      </c>
+      <c r="H77">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+      <c r="K77">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="L77">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="M77">
+        <v>0.59459459459459396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="F78">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="G78">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="H78">
+        <v>25</v>
+      </c>
+      <c r="I78">
+        <v>26</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="L78">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="M78">
+        <v>0.96153846153846101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>0.5</v>
+      </c>
+      <c r="F79">
+        <v>0.5</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>0.5</v>
+      </c>
+      <c r="L79">
+        <v>0.5</v>
+      </c>
+      <c r="M79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>35</v>
+      </c>
+      <c r="I80">
+        <v>35</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81">
+        <v>183</v>
+      </c>
+      <c r="C81">
+        <v>214</v>
+      </c>
+      <c r="D81">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>0.855140186915887</v>
+      </c>
+      <c r="F81">
+        <v>0.855140186915887</v>
+      </c>
+      <c r="G81">
+        <v>0.855140186915887</v>
+      </c>
+      <c r="H81">
+        <v>183</v>
+      </c>
+      <c r="I81">
+        <v>214</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>0.855140186915887</v>
+      </c>
+      <c r="L81">
+        <v>0.855140186915887</v>
+      </c>
+      <c r="M81">
+        <v>0.855140186915887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>0.65</v>
+      </c>
+      <c r="F82">
+        <v>0.65</v>
+      </c>
+      <c r="G82">
+        <v>0.65</v>
+      </c>
+      <c r="H82">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>20</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>0.65</v>
+      </c>
+      <c r="L82">
+        <v>0.65</v>
+      </c>
+      <c r="M82">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.875</v>
+      </c>
+      <c r="F83">
+        <v>0.7</v>
+      </c>
+      <c r="G83">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0.875</v>
+      </c>
+      <c r="L83">
+        <v>0.7</v>
+      </c>
+      <c r="M83">
+        <v>0.77777777777777701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>0.75</v>
+      </c>
+      <c r="F84">
+        <v>0.75</v>
+      </c>
+      <c r="G84">
+        <v>0.75</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>0.75</v>
+      </c>
+      <c r="L84">
+        <v>0.75</v>
+      </c>
+      <c r="M84">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85">
+        <v>109</v>
+      </c>
+      <c r="C85">
+        <v>115</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0.95614035087719296</v>
+      </c>
+      <c r="F85">
+        <v>0.94782608695652104</v>
+      </c>
+      <c r="G85">
+        <v>0.95196506550218296</v>
+      </c>
+      <c r="H85">
+        <v>109</v>
+      </c>
+      <c r="I85">
+        <v>115</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <v>0.95614035087719296</v>
+      </c>
+      <c r="L85">
+        <v>0.94782608695652104</v>
+      </c>
+      <c r="M85">
+        <v>0.95196506550218296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="F86">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="G86">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="H86">
+        <v>64</v>
+      </c>
+      <c r="I86">
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="L86">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="M86">
+        <v>0.94117647058823495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87">
+        <v>71</v>
+      </c>
+      <c r="C87">
+        <v>110</v>
+      </c>
+      <c r="D87">
+        <v>39</v>
+      </c>
+      <c r="E87">
+        <v>0.64545454545454495</v>
+      </c>
+      <c r="F87">
+        <v>0.64545454545454495</v>
+      </c>
+      <c r="G87">
+        <v>0.64545454545454495</v>
+      </c>
+      <c r="H87">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>110</v>
+      </c>
+      <c r="J87">
+        <v>39</v>
+      </c>
+      <c r="K87">
+        <v>0.64545454545454495</v>
+      </c>
+      <c r="L87">
+        <v>0.64545454545454495</v>
+      </c>
+      <c r="M87">
+        <v>0.64545454545454495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>29</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="F88">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="G88">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="H88">
+        <v>28</v>
+      </c>
+      <c r="I88">
+        <v>29</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="L88">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="M88">
+        <v>0.96551724137931005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F89">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G89">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H89">
+        <v>14</v>
+      </c>
+      <c r="I89">
+        <v>15</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="L89">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="M89">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>296</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0.8125</v>
+      </c>
+      <c r="G92">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>16</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0.8125</v>
+      </c>
+      <c r="M92">
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93">
+        <v>21</v>
+      </c>
+      <c r="C93">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="F93">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="G93">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="H93">
+        <v>21</v>
+      </c>
+      <c r="I93">
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="L93">
+        <v>0.91304347826086896</v>
+      </c>
+      <c r="M93">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>300</v>
+      </c>
+      <c r="B94">
+        <v>45</v>
+      </c>
+      <c r="C94">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="F94">
+        <v>0.80357142857142805</v>
+      </c>
+      <c r="G94">
+        <v>0.84112149532710201</v>
+      </c>
+      <c r="H94">
+        <v>45</v>
+      </c>
+      <c r="I94">
+        <v>56</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="L94">
+        <v>0.80357142857142805</v>
+      </c>
+      <c r="M94">
+        <v>0.84112149532710201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="F97">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G97">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>11</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="L97">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="M97">
+        <v>0.72727272727272696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G99">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="I99">
+        <v>11</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="M99">
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0.875</v>
+      </c>
+      <c r="F100">
+        <v>0.875</v>
+      </c>
+      <c r="G100">
+        <v>0.875</v>
+      </c>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>8</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0.875</v>
+      </c>
+      <c r="L100">
+        <v>0.875</v>
+      </c>
+      <c r="M100">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>78</v>
+      </c>
+      <c r="D101">
+        <v>33</v>
+      </c>
+      <c r="E101">
+        <v>0.50746268656716398</v>
+      </c>
+      <c r="F101">
+        <v>0.43589743589743501</v>
+      </c>
+      <c r="G101">
+        <v>0.46896551724137903</v>
+      </c>
+      <c r="H101">
+        <v>34</v>
+      </c>
+      <c r="I101">
+        <v>78</v>
+      </c>
+      <c r="J101">
+        <v>33</v>
+      </c>
+      <c r="K101">
+        <v>0.50746268656716398</v>
+      </c>
+      <c r="L101">
+        <v>0.43589743589743501</v>
+      </c>
+      <c r="M101">
+        <v>0.46896551724137903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="F102">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G102">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="H102">
+        <v>12</v>
+      </c>
+      <c r="I102">
+        <v>22</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="L102">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="M102">
+        <v>0.54545454545454497</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>14</v>
+      </c>
+      <c r="I103">
+        <v>14</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="F104">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G104">
+        <v>0.68571428571428505</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
+      </c>
+      <c r="I104">
+        <v>18</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="L104">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M104">
+        <v>0.64864864864864802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F105">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G105">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L105">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="M105">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>11</v>
+      </c>
+      <c r="I107">
+        <v>11</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>31</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>0.9</v>
+      </c>
+      <c r="F108">
+        <v>0.87096774193548299</v>
+      </c>
+      <c r="G108">
+        <v>0.88524590163934402</v>
+      </c>
+      <c r="H108">
+        <v>27</v>
+      </c>
+      <c r="I108">
+        <v>31</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>0.9</v>
+      </c>
+      <c r="L108">
+        <v>0.87096774193548299</v>
+      </c>
+      <c r="M108">
+        <v>0.88524590163934402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>159</v>
+      </c>
+      <c r="D109">
+        <v>52</v>
+      </c>
+      <c r="E109">
+        <v>0.67295597484276704</v>
+      </c>
+      <c r="F109">
+        <v>0.67295597484276704</v>
+      </c>
+      <c r="G109">
+        <v>0.67295597484276704</v>
+      </c>
+      <c r="H109">
+        <v>107</v>
+      </c>
+      <c r="I109">
+        <v>159</v>
+      </c>
+      <c r="J109">
+        <v>52</v>
+      </c>
+      <c r="K109">
+        <v>0.67295597484276704</v>
+      </c>
+      <c r="L109">
+        <v>0.67295597484276704</v>
+      </c>
+      <c r="M109">
+        <v>0.67295597484276704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="F110">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="G110">
+        <v>0.74285714285714199</v>
+      </c>
+      <c r="H110">
+        <v>13</v>
+      </c>
+      <c r="I110">
+        <v>18</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="L110">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="M110">
+        <v>0.74285714285714199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
+      </c>
+      <c r="I111">
+        <v>30</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112">
+        <v>54</v>
+      </c>
+      <c r="C112">
+        <v>91</v>
+      </c>
+      <c r="D112">
+        <v>37</v>
+      </c>
+      <c r="E112">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="F112">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="G112">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="H112">
+        <v>54</v>
+      </c>
+      <c r="I112">
+        <v>91</v>
+      </c>
+      <c r="J112">
+        <v>37</v>
+      </c>
+      <c r="K112">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="L112">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="M112">
+        <v>0.59340659340659296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>319</v>
+      </c>
+      <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>43</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0.60465116279069697</v>
+      </c>
+      <c r="G113">
+        <v>0.75362318840579701</v>
+      </c>
+      <c r="H113">
+        <v>26</v>
+      </c>
+      <c r="I113">
+        <v>43</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0.60465116279069697</v>
+      </c>
+      <c r="M113">
+        <v>0.75362318840579701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>15</v>
+      </c>
+      <c r="I114">
+        <v>15</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>18</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="F115">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="G115">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="H115">
+        <v>17</v>
+      </c>
+      <c r="I115">
+        <v>18</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="L115">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="M115">
+        <v>0.94444444444444398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116">
+        <v>251</v>
+      </c>
+      <c r="C116">
+        <v>342</v>
+      </c>
+      <c r="D116">
+        <v>77</v>
+      </c>
+      <c r="E116">
+        <v>0.76524390243902396</v>
+      </c>
+      <c r="F116">
+        <v>0.73391812865496997</v>
+      </c>
+      <c r="G116">
+        <v>0.74925373134328299</v>
+      </c>
+      <c r="H116">
+        <v>251</v>
+      </c>
+      <c r="I116">
+        <v>342</v>
+      </c>
+      <c r="J116">
+        <v>77</v>
+      </c>
+      <c r="K116">
+        <v>0.76524390243902396</v>
+      </c>
+      <c r="L116">
+        <v>0.73391812865496997</v>
+      </c>
+      <c r="M116">
+        <v>0.74925373134328299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>20</v>
+      </c>
+      <c r="I117">
+        <v>20</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118">
+        <v>49</v>
+      </c>
+      <c r="C118">
+        <v>49</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>49</v>
+      </c>
+      <c r="I118">
+        <v>49</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119">
+        <v>43</v>
+      </c>
+      <c r="C119">
+        <v>48</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="F119">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="G119">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="H119">
+        <v>43</v>
+      </c>
+      <c r="I119">
+        <v>48</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+      <c r="K119">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="L119">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="M119">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>326</v>
+      </c>
+      <c r="B120">
+        <v>57</v>
+      </c>
+      <c r="C120">
+        <v>73</v>
+      </c>
+      <c r="D120">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="F120">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="G120">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="H120">
+        <v>57</v>
+      </c>
+      <c r="I120">
+        <v>73</v>
+      </c>
+      <c r="J120">
+        <v>16</v>
+      </c>
+      <c r="K120">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="L120">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="M120">
+        <v>0.78082191780821897</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>327</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F121">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="G121">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="H121">
+        <v>14</v>
+      </c>
+      <c r="I121">
+        <v>26</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L121">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="M121">
+        <v>0.63636363636363602</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>328</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>12</v>
+      </c>
+      <c r="I122">
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>13</v>
+      </c>
+      <c r="I123">
+        <v>13</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>330</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="F124">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="G124">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="H124">
+        <v>17</v>
+      </c>
+      <c r="I124">
+        <v>19</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="L124">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="M124">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>331</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0.9375</v>
+      </c>
+      <c r="F126">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="G126">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H126">
+        <v>15</v>
+      </c>
+      <c r="I126">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0.9375</v>
+      </c>
+      <c r="L126">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="M126">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>333</v>
+      </c>
+      <c r="B127">
+        <v>43</v>
+      </c>
+      <c r="C127">
+        <v>46</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>0.934782608695652</v>
+      </c>
+      <c r="F127">
+        <v>0.934782608695652</v>
+      </c>
+      <c r="G127">
+        <v>0.934782608695652</v>
+      </c>
+      <c r="H127">
+        <v>43</v>
+      </c>
+      <c r="I127">
+        <v>46</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>0.934782608695652</v>
+      </c>
+      <c r="L127">
+        <v>0.934782608695652</v>
+      </c>
+      <c r="M127">
+        <v>0.934782608695652</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="F128">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="G128">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>11</v>
+      </c>
+      <c r="J128">
+        <v>8</v>
+      </c>
+      <c r="K128">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="L128">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="M128">
+        <v>0.27272727272727199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>0.5</v>
+      </c>
+      <c r="F129">
+        <v>0.5</v>
+      </c>
+      <c r="G129">
+        <v>0.5</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>0.5</v>
+      </c>
+      <c r="L129">
+        <v>0.5</v>
+      </c>
+      <c r="M129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>336</v>
+      </c>
+      <c r="B130">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>29</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>0.75</v>
+      </c>
+      <c r="F130">
+        <v>0.51724137931034397</v>
+      </c>
+      <c r="G130">
+        <v>0.61224489795918302</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+      <c r="I130">
+        <v>29</v>
+      </c>
+      <c r="J130">
+        <v>5</v>
+      </c>
+      <c r="K130">
+        <v>0.75</v>
+      </c>
+      <c r="L130">
+        <v>0.51724137931034397</v>
+      </c>
+      <c r="M130">
+        <v>0.61224489795918302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="G131">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131">
+        <v>14</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="M131">
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>338</v>
+      </c>
+      <c r="B132">
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>27</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="F132">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="G132">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="H132">
+        <v>17</v>
+      </c>
+      <c r="I132">
+        <v>27</v>
+      </c>
+      <c r="J132">
+        <v>10</v>
+      </c>
+      <c r="K132">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="L132">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="M132">
+        <v>0.62962962962962898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>339</v>
+      </c>
+      <c r="B133">
+        <v>41</v>
+      </c>
+      <c r="C133">
+        <v>43</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="F133">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="G133">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="H133">
+        <v>41</v>
+      </c>
+      <c r="I133">
+        <v>43</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="L133">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="M133">
+        <v>0.95348837209302295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>0.7</v>
+      </c>
+      <c r="F134">
+        <v>0.7</v>
+      </c>
+      <c r="G134">
+        <v>0.7</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>0.7</v>
+      </c>
+      <c r="L134">
+        <v>0.7</v>
+      </c>
+      <c r="M134">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>341</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>24</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F135">
+        <v>0.625</v>
+      </c>
+      <c r="G135">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H135">
+        <v>15</v>
+      </c>
+      <c r="I135">
+        <v>24</v>
+      </c>
+      <c r="J135">
+        <v>6</v>
+      </c>
+      <c r="K135">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L135">
+        <v>0.625</v>
+      </c>
+      <c r="M135">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>342</v>
+      </c>
+      <c r="B136">
+        <v>29</v>
+      </c>
+      <c r="C136">
+        <v>36</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="F136">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="G136">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="H136">
+        <v>29</v>
+      </c>
+      <c r="I136">
+        <v>36</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="L136">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="M136">
+        <v>0.80555555555555503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137">
+        <v>43</v>
+      </c>
+      <c r="C137">
+        <v>48</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>0.91489361702127603</v>
+      </c>
+      <c r="F137">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="G137">
+        <v>0.90526315789473599</v>
+      </c>
+      <c r="H137">
+        <v>43</v>
+      </c>
+      <c r="I137">
+        <v>48</v>
+      </c>
+      <c r="J137">
+        <v>4</v>
+      </c>
+      <c r="K137">
+        <v>0.91489361702127603</v>
+      </c>
+      <c r="L137">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="M137">
+        <v>0.90526315789473599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>344</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0.9</v>
+      </c>
+      <c r="G138">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="H138">
+        <v>9</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0.9</v>
+      </c>
+      <c r="M138">
+        <v>0.94736842105263097</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>345</v>
+      </c>
+      <c r="B139">
+        <v>93</v>
+      </c>
+      <c r="C139">
+        <v>99</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="F139">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="G139">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="H139">
+        <v>93</v>
+      </c>
+      <c r="I139">
+        <v>99</v>
+      </c>
+      <c r="J139">
+        <v>6</v>
+      </c>
+      <c r="K139">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="L139">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="M139">
+        <v>0.939393939393939</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>346</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F140">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="G140">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140">
+        <v>12</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L140">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="M140">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0.8</v>
+      </c>
+      <c r="F141">
+        <v>0.8</v>
+      </c>
+      <c r="G141">
+        <v>0.8</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0.8</v>
+      </c>
+      <c r="L141">
+        <v>0.8</v>
+      </c>
+      <c r="M141">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>348</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <v>8</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>349</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>25</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>0.6</v>
+      </c>
+      <c r="F143">
+        <v>0.6</v>
+      </c>
+      <c r="G143">
+        <v>0.6</v>
+      </c>
+      <c r="H143">
+        <v>15</v>
+      </c>
+      <c r="I143">
+        <v>25</v>
+      </c>
+      <c r="J143">
+        <v>10</v>
+      </c>
+      <c r="K143">
+        <v>0.6</v>
+      </c>
+      <c r="L143">
+        <v>0.6</v>
+      </c>
+      <c r="M143">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>350</v>
+      </c>
+      <c r="B144">
+        <v>32</v>
+      </c>
+      <c r="C144">
+        <v>32</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>32</v>
+      </c>
+      <c r="I144">
+        <v>32</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>351</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>5</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>11</v>
+      </c>
+      <c r="I146">
+        <v>11</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>353</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>7</v>
+      </c>
+      <c r="I147">
+        <v>7</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>354</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>30</v>
+      </c>
+      <c r="I148">
+        <v>30</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F149">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="G149">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="H149">
+        <v>7</v>
+      </c>
+      <c r="I149">
+        <v>9</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L149">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="M149">
+        <v>0.77777777777777701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>356</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>16</v>
+      </c>
+      <c r="I150">
+        <v>16</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151">
+        <v>23</v>
+      </c>
+      <c r="C151">
+        <v>43</v>
+      </c>
+      <c r="D151">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="F151">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="G151">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="H151">
+        <v>23</v>
+      </c>
+      <c r="I151">
+        <v>43</v>
+      </c>
+      <c r="J151">
+        <v>20</v>
+      </c>
+      <c r="K151">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="L151">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="M151">
+        <v>0.53488372093023195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>358</v>
+      </c>
+      <c r="B152">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="F152">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="G152">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="H152">
+        <v>13</v>
+      </c>
+      <c r="I152">
+        <v>14</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="L152">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="M152">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>359</v>
+      </c>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153">
+        <v>8</v>
+      </c>
+      <c r="E153">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="F153">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="G153">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="H153">
+        <v>11</v>
+      </c>
+      <c r="I153">
+        <v>19</v>
+      </c>
+      <c r="J153">
+        <v>8</v>
+      </c>
+      <c r="K153">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="L153">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="M153">
+        <v>0.57894736842105199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>360</v>
+      </c>
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F154">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G154">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H154">
+        <v>12</v>
+      </c>
+      <c r="I154">
+        <v>14</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L154">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M154">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>361</v>
+      </c>
+      <c r="B155">
+        <v>48</v>
+      </c>
+      <c r="C155">
+        <v>48</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>48</v>
+      </c>
+      <c r="I155">
+        <v>48</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>362</v>
+      </c>
+      <c r="B156">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>17</v>
+      </c>
+      <c r="I156">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>363</v>
+      </c>
+      <c r="B157">
+        <v>22</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>0.88</v>
+      </c>
+      <c r="F157">
+        <v>0.88</v>
+      </c>
+      <c r="G157">
+        <v>0.88</v>
+      </c>
+      <c r="H157">
+        <v>22</v>
+      </c>
+      <c r="I157">
+        <v>25</v>
+      </c>
+      <c r="J157">
+        <v>3</v>
+      </c>
+      <c r="K157">
+        <v>0.88</v>
+      </c>
+      <c r="L157">
+        <v>0.88</v>
+      </c>
+      <c r="M157">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="F158">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="G158">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="H158">
+        <v>13</v>
+      </c>
+      <c r="I158">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>4</v>
+      </c>
+      <c r="K158">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="L158">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="M158">
+        <v>0.76470588235294101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>365</v>
+      </c>
+      <c r="B159">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>37</v>
+      </c>
+      <c r="D159">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="F159">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="G159">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="H159">
+        <v>18</v>
+      </c>
+      <c r="I159">
+        <v>37</v>
+      </c>
+      <c r="J159">
+        <v>19</v>
+      </c>
+      <c r="K159">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="L159">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="M159">
+        <v>0.48648648648648601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>366</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>21</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F160">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="G160">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="H160">
+        <v>20</v>
+      </c>
+      <c r="I160">
+        <v>21</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="L160">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="M160">
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>367</v>
+      </c>
+      <c r="B161">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <v>14</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="F161">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="G161">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="H161">
+        <v>11</v>
+      </c>
+      <c r="I161">
+        <v>14</v>
+      </c>
+      <c r="J161">
+        <v>3</v>
+      </c>
+      <c r="K161">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L161">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="M161">
+        <v>0.78571428571428503</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>368</v>
+      </c>
+      <c r="B162">
+        <v>56</v>
+      </c>
+      <c r="C162">
+        <v>57</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="F162">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="G162">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="H162">
+        <v>56</v>
+      </c>
+      <c r="I162">
+        <v>57</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="L162">
+        <v>0.98245614035087703</v>
+      </c>
+      <c r="M162">
+        <v>0.98245614035087703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>369</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>370</v>
+      </c>
+      <c r="B164">
+        <v>29</v>
+      </c>
+      <c r="C164">
+        <v>44</v>
+      </c>
+      <c r="D164">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="F164">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="G164">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="H164">
+        <v>29</v>
+      </c>
+      <c r="I164">
+        <v>44</v>
+      </c>
+      <c r="J164">
+        <v>15</v>
+      </c>
+      <c r="K164">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="L164">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="M164">
+        <v>0.65909090909090895</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>371</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>0.8</v>
+      </c>
+      <c r="F165">
+        <v>0.8</v>
+      </c>
+      <c r="G165">
+        <v>0.8</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <v>10</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>0.8</v>
+      </c>
+      <c r="L165">
+        <v>0.8</v>
+      </c>
+      <c r="M165">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>372</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>5</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167">
+        <v>41</v>
+      </c>
+      <c r="C167">
+        <v>56</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="F167">
+        <v>0.73214285714285698</v>
+      </c>
+      <c r="G167">
+        <v>0.82</v>
+      </c>
+      <c r="H167">
+        <v>41</v>
+      </c>
+      <c r="I167">
+        <v>56</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167">
+        <v>0.93181818181818099</v>
+      </c>
+      <c r="L167">
+        <v>0.73214285714285698</v>
+      </c>
+      <c r="M167">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>374</v>
+      </c>
+      <c r="B168">
+        <v>63</v>
+      </c>
+      <c r="C168">
+        <v>66</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0.984375</v>
+      </c>
+      <c r="F168">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="G168">
+        <v>0.96923076923076901</v>
+      </c>
+      <c r="H168">
+        <v>63</v>
+      </c>
+      <c r="I168">
+        <v>66</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>0.984375</v>
+      </c>
+      <c r="L168">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="M168">
+        <v>0.96923076923076901</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>375</v>
+      </c>
+      <c r="B169">
+        <v>35</v>
+      </c>
+      <c r="C169">
+        <v>38</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="F169">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="G169">
+        <v>0.94594594594594505</v>
+      </c>
+      <c r="H169">
+        <v>35</v>
+      </c>
+      <c r="I169">
+        <v>38</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="L169">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="M169">
+        <v>0.94594594594594505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>376</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <v>22</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>22</v>
+      </c>
+      <c r="I170">
+        <v>22</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F171">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G171">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L171">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="M171">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>378</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>0.6</v>
+      </c>
+      <c r="F172">
+        <v>0.6</v>
+      </c>
+      <c r="G172">
+        <v>0.6</v>
+      </c>
+      <c r="H172">
+        <v>9</v>
+      </c>
+      <c r="I172">
+        <v>15</v>
+      </c>
+      <c r="J172">
+        <v>6</v>
+      </c>
+      <c r="K172">
+        <v>0.6</v>
+      </c>
+      <c r="L172">
+        <v>0.6</v>
+      </c>
+      <c r="M172">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>379</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>7</v>
+      </c>
+      <c r="I173">
+        <v>7</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174">
+        <v>14</v>
+      </c>
+      <c r="C174">
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>14</v>
+      </c>
+      <c r="I174">
+        <v>14</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>381</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>382</v>
+      </c>
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>16</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0.9375</v>
+      </c>
+      <c r="F176">
+        <v>0.9375</v>
+      </c>
+      <c r="G176">
+        <v>0.9375</v>
+      </c>
+      <c r="H176">
+        <v>15</v>
+      </c>
+      <c r="I176">
+        <v>16</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>0.9375</v>
+      </c>
+      <c r="L176">
+        <v>0.9375</v>
+      </c>
+      <c r="M176">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>383</v>
+      </c>
+      <c r="B177">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>24</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="F177">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="G177">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="H177">
+        <v>23</v>
+      </c>
+      <c r="I177">
+        <v>24</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="L177">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="M177">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>384</v>
+      </c>
+      <c r="B178">
+        <v>36</v>
+      </c>
+      <c r="C178">
+        <v>46</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>0.87804878048780399</v>
+      </c>
+      <c r="F178">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="G178">
+        <v>0.82758620689655105</v>
+      </c>
+      <c r="H178">
+        <v>36</v>
+      </c>
+      <c r="I178">
+        <v>46</v>
+      </c>
+      <c r="J178">
+        <v>5</v>
+      </c>
+      <c r="K178">
+        <v>0.87804878048780399</v>
+      </c>
+      <c r="L178">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="M178">
+        <v>0.82758620689655105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>385</v>
+      </c>
+      <c r="B179">
+        <v>44</v>
+      </c>
+      <c r="C179">
+        <v>66</v>
+      </c>
+      <c r="D179">
+        <v>17</v>
+      </c>
+      <c r="E179">
+        <v>0.72131147540983598</v>
+      </c>
+      <c r="F179">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G179">
+        <v>0.69291338582677098</v>
+      </c>
+      <c r="H179">
+        <v>44</v>
+      </c>
+      <c r="I179">
+        <v>66</v>
+      </c>
+      <c r="J179">
+        <v>17</v>
+      </c>
+      <c r="K179">
+        <v>0.72131147540983598</v>
+      </c>
+      <c r="L179">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M179">
+        <v>0.69291338582677098</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>386</v>
+      </c>
+      <c r="B180">
+        <v>43</v>
+      </c>
+      <c r="C180">
+        <v>68</v>
+      </c>
+      <c r="D180">
+        <v>21</v>
+      </c>
+      <c r="E180">
+        <v>0.671875</v>
+      </c>
+      <c r="F180">
+        <v>0.63235294117647001</v>
+      </c>
+      <c r="G180">
+        <v>0.65151515151515105</v>
+      </c>
+      <c r="H180">
+        <v>43</v>
+      </c>
+      <c r="I180">
+        <v>68</v>
+      </c>
+      <c r="J180">
+        <v>21</v>
+      </c>
+      <c r="K180">
+        <v>0.671875</v>
+      </c>
+      <c r="L180">
+        <v>0.63235294117647001</v>
+      </c>
+      <c r="M180">
+        <v>0.65151515151515105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>387</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>13</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="F181">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="G181">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="H181">
+        <v>6</v>
+      </c>
+      <c r="I181">
+        <v>13</v>
+      </c>
+      <c r="J181">
+        <v>7</v>
+      </c>
+      <c r="K181">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="L181">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="M181">
+        <v>0.46153846153846101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>388</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>0.5</v>
+      </c>
+      <c r="F182">
+        <v>0.5</v>
+      </c>
+      <c r="G182">
+        <v>0.5</v>
+      </c>
+      <c r="H182">
+        <v>8</v>
+      </c>
+      <c r="I182">
+        <v>16</v>
+      </c>
+      <c r="J182">
+        <v>8</v>
+      </c>
+      <c r="K182">
+        <v>0.5</v>
+      </c>
+      <c r="L182">
+        <v>0.5</v>
+      </c>
+      <c r="M182">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183">
+        <v>26</v>
+      </c>
+      <c r="C183">
+        <v>55</v>
+      </c>
+      <c r="D183">
+        <v>29</v>
+      </c>
+      <c r="E183">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="F183">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="G183">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="H183">
+        <v>26</v>
+      </c>
+      <c r="I183">
+        <v>55</v>
+      </c>
+      <c r="J183">
+        <v>29</v>
+      </c>
+      <c r="K183">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="L183">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="M183">
+        <v>0.472727272727272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>390</v>
+      </c>
+      <c r="B184">
+        <v>40</v>
+      </c>
+      <c r="C184">
+        <v>56</v>
+      </c>
+      <c r="D184">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F184">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="G184">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H184">
+        <v>40</v>
+      </c>
+      <c r="I184">
+        <v>56</v>
+      </c>
+      <c r="J184">
+        <v>17</v>
+      </c>
+      <c r="K184">
+        <v>0.70175438596491202</v>
+      </c>
+      <c r="L184">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="M184">
+        <v>0.70796460176991105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>391</v>
+      </c>
+      <c r="B185">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185">
+        <v>0.4</v>
+      </c>
+      <c r="F185">
+        <v>0.4</v>
+      </c>
+      <c r="G185">
+        <v>0.4</v>
+      </c>
+      <c r="H185">
+        <v>10</v>
+      </c>
+      <c r="I185">
+        <v>25</v>
+      </c>
+      <c r="J185">
+        <v>15</v>
+      </c>
+      <c r="K185">
+        <v>0.4</v>
+      </c>
+      <c r="L185">
+        <v>0.4</v>
+      </c>
+      <c r="M185">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>18</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>0.5</v>
+      </c>
+      <c r="F186">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G186">
+        <v>0.4</v>
+      </c>
+      <c r="H186">
+        <v>6</v>
+      </c>
+      <c r="I186">
+        <v>18</v>
+      </c>
+      <c r="J186">
+        <v>6</v>
+      </c>
+      <c r="K186">
+        <v>0.5</v>
+      </c>
+      <c r="L186">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M186">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187">
+        <v>47</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>53</v>
+      </c>
+      <c r="E187">
+        <v>0.47</v>
+      </c>
+      <c r="F187">
+        <v>0.47</v>
+      </c>
+      <c r="G187">
+        <v>0.47</v>
+      </c>
+      <c r="H187">
+        <v>47</v>
+      </c>
+      <c r="I187">
+        <v>100</v>
+      </c>
+      <c r="J187">
+        <v>53</v>
+      </c>
+      <c r="K187">
+        <v>0.47</v>
+      </c>
+      <c r="L187">
+        <v>0.47</v>
+      </c>
+      <c r="M187">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>21</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>0.5</v>
+      </c>
+      <c r="F188">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="G188">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="H188">
+        <v>10</v>
+      </c>
+      <c r="I188">
+        <v>21</v>
+      </c>
+      <c r="J188">
+        <v>10</v>
+      </c>
+      <c r="K188">
+        <v>0.5</v>
+      </c>
+      <c r="L188">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="M188">
+        <v>0.48780487804877998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>0.75</v>
+      </c>
+      <c r="F189">
+        <v>0.75</v>
+      </c>
+      <c r="G189">
+        <v>0.75</v>
+      </c>
+      <c r="H189">
+        <v>15</v>
+      </c>
+      <c r="I189">
+        <v>20</v>
+      </c>
+      <c r="J189">
+        <v>5</v>
+      </c>
+      <c r="K189">
+        <v>0.75</v>
+      </c>
+      <c r="L189">
+        <v>0.75</v>
+      </c>
+      <c r="M189">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190">
+        <v>77</v>
+      </c>
+      <c r="C190">
+        <v>77</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>77</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>397</v>
+      </c>
+      <c r="B191">
+        <v>63</v>
+      </c>
+      <c r="C191">
+        <v>64</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>0.984375</v>
+      </c>
+      <c r="F191">
+        <v>0.984375</v>
+      </c>
+      <c r="G191">
+        <v>0.984375</v>
+      </c>
+      <c r="H191">
+        <v>63</v>
+      </c>
+      <c r="I191">
+        <v>64</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>0.984375</v>
+      </c>
+      <c r="L191">
+        <v>0.984375</v>
+      </c>
+      <c r="M191">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>20</v>
+      </c>
+      <c r="D192">
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>0.05</v>
+      </c>
+      <c r="F192">
+        <v>0.05</v>
+      </c>
+      <c r="G192">
+        <v>0.05</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>20</v>
+      </c>
+      <c r="J192">
+        <v>19</v>
+      </c>
+      <c r="K192">
+        <v>0.05</v>
+      </c>
+      <c r="L192">
+        <v>0.05</v>
+      </c>
+      <c r="M192">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>3</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194">
+        <v>19</v>
+      </c>
+      <c r="C194">
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>19</v>
+      </c>
+      <c r="I194">
+        <v>19</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>20</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>0.5</v>
+      </c>
+      <c r="F195">
+        <v>0.5</v>
+      </c>
+      <c r="G195">
+        <v>0.5</v>
+      </c>
+      <c r="H195">
+        <v>10</v>
+      </c>
+      <c r="I195">
+        <v>20</v>
+      </c>
+      <c r="J195">
+        <v>10</v>
+      </c>
+      <c r="K195">
+        <v>0.5</v>
+      </c>
+      <c r="L195">
+        <v>0.5</v>
+      </c>
+      <c r="M195">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>24</v>
+      </c>
+      <c r="D196">
+        <v>14</v>
+      </c>
+      <c r="E196">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="F196">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="G196">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="H196">
+        <v>10</v>
+      </c>
+      <c r="I196">
+        <v>24</v>
+      </c>
+      <c r="J196">
+        <v>14</v>
+      </c>
+      <c r="K196">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="L196">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="M196">
+        <v>0.41666666666666602</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>28</v>
+      </c>
+      <c r="D197">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="F197">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="G197">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="H197">
+        <v>12</v>
+      </c>
+      <c r="I197">
+        <v>28</v>
+      </c>
+      <c r="J197">
+        <v>16</v>
+      </c>
+      <c r="K197">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="L197">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="M197">
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+      <c r="C198">
+        <v>60</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F198">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G198">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H198">
+        <v>50</v>
+      </c>
+      <c r="I198">
+        <v>60</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L198">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M198">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199">
+        <v>25</v>
+      </c>
+      <c r="C199">
+        <v>26</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="G199">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="H199">
+        <v>25</v>
+      </c>
+      <c r="I199">
+        <v>26</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="M199">
+        <v>0.98039215686274495</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200">
+        <v>30</v>
+      </c>
+      <c r="C200">
+        <v>37</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="F200">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="G200">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="H200">
+        <v>30</v>
+      </c>
+      <c r="I200">
+        <v>37</v>
+      </c>
+      <c r="J200">
+        <v>7</v>
+      </c>
+      <c r="K200">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="L200">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="M200">
+        <v>0.81081081081080997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201">
+        <v>17</v>
+      </c>
+      <c r="C201">
+        <v>20</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>0.85</v>
+      </c>
+      <c r="F201">
+        <v>0.85</v>
+      </c>
+      <c r="G201">
+        <v>0.85</v>
+      </c>
+      <c r="H201">
+        <v>17</v>
+      </c>
+      <c r="I201">
+        <v>20</v>
+      </c>
+      <c r="J201">
+        <v>3</v>
+      </c>
+      <c r="K201">
+        <v>0.85</v>
+      </c>
+      <c r="L201">
+        <v>0.85</v>
+      </c>
+      <c r="M201">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="1">
+        <f>SUM(B2:B201)</f>
+        <v>5132</v>
+      </c>
+      <c r="C202" s="1">
+        <f t="shared" ref="C202:D202" si="0">SUM(C2:C201)</f>
+        <v>6453</v>
+      </c>
+      <c r="D202" s="1">
+        <f t="shared" si="0"/>
+        <v>1121</v>
+      </c>
+      <c r="E202" s="1">
+        <f>B202/(B202+D202)</f>
+        <v>0.82072605149528222</v>
+      </c>
+      <c r="F202" s="1">
+        <f>B202/C202</f>
+        <v>0.79528901286223463</v>
+      </c>
+      <c r="G202" s="1">
+        <f>2*E202*F202/(E202+F202)</f>
+        <v>0.80780733511726743</v>
+      </c>
+      <c r="H202" s="1">
+        <f>SUM(H2:H201)</f>
+        <v>5132</v>
+      </c>
+      <c r="I202" s="1">
+        <f t="shared" ref="I202:J202" si="1">SUM(I2:I201)</f>
+        <v>6453</v>
+      </c>
+      <c r="J202" s="1">
+        <f t="shared" si="1"/>
+        <v>1128</v>
+      </c>
+      <c r="K202" s="1">
+        <f>H202/(H202+J202)</f>
+        <v>0.81980830670926519</v>
+      </c>
+      <c r="L202" s="1">
+        <f>H202/I202</f>
+        <v>0.79528901286223463</v>
+      </c>
+      <c r="M202" s="1">
+        <f>2*K202*L202/(K202+L202)</f>
+        <v>0.80736254227955628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>